--- a/PyScripts/Parsers/Industries/Healthcare/Response/2016.xlsx
+++ b/PyScripts/Parsers/Industries/Healthcare/Response/2016.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Бутовецкая Софья\ВГУ\Проект счётной палаты\Документы для ВГУ\4_Государственные программы ВО\Отчеты ГП ВО 2016\Развитие здравоохранения\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.butovetskaya/PycharmProjects/SP_project/PyScripts/Parsers/Industries/Healthcare/Response/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4F366C-2004-9747-BE69-41EE822AB614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14508" yWindow="-12" windowWidth="14316" windowHeight="12252" tabRatio="745"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="табл8План" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">табл8План!$7:$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">табл8План!$A$3:$E$206</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">табл8План!$A$3:$E$205</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="355">
   <si>
     <t xml:space="preserve">"Социальная поддержка отдельных категорий медицинских работников" </t>
   </si>
@@ -35,10 +36,6 @@
   </si>
   <si>
     <t>"Оказание паллиативной помощи взрослым"</t>
-  </si>
-  <si>
-    <t>Основное 
-мероприятие 7. 2.</t>
   </si>
   <si>
     <t>Основное 
@@ -70,12 +67,6 @@
     <t>Строительство ФАП в сл. Новохарьковка Ольховатского муниципального района (включая ПИР)</t>
   </si>
   <si>
-    <t xml:space="preserve">Осуществление  лабораторного контроля качества лекарственных препаратов;информационно-аналитического скрининга лекарственных средств, находящихся в обращении в аптечной и лечебной сети области;  осуществления мониторинга и регистрации  неблагоприятных побочных реакций </t>
-  </si>
-  <si>
-    <t>"Совершенствование оказания специализированной, включая высокотехнологичную, медицинской помощи, скорой, в том числе скорой специализированной, медицинкой помощи, медицинской эвакуации"</t>
-  </si>
-  <si>
     <t>Основное 
 мероприятие 2.1</t>
   </si>
@@ -87,9 +78,6 @@
 мероприятие 2.2</t>
   </si>
   <si>
-    <t>"Совершенствование оказания медицинской помощи лицам,инфицированным вирусом иммунодефицита человека, гепатитами В и С"</t>
-  </si>
-  <si>
     <t>Основное 
 мероприятие 2.3</t>
   </si>
@@ -122,9 +110,6 @@
 мероприятие 2.7</t>
   </si>
   <si>
-    <t xml:space="preserve">"Совершенствование оказания скорой, в том числе  скорой специализированной,медицинской помощи, медицинской эвакуации" </t>
-  </si>
-  <si>
     <t>Основное 
 мероприятие 2.8</t>
   </si>
@@ -259,12 +244,6 @@
   </si>
   <si>
     <t>Исполнение обязательств области по перечислению платежа на неработающее население в федеральный фонд ОМС в рамках выполнения территориальной программы обязательного медицинского страхования.</t>
-  </si>
-  <si>
-    <t>Удовлетворение потребностит населения Воронежской области в гемодиализной помощи путем обеспечения функционирования существующих и дальнейшего развития сети гемодиализных отделений</t>
-  </si>
-  <si>
-    <t>Оказание видов высокотехнологичной медицинской помощи на основе ядерных медицинских технологий в рамках государтвенно-частного партнерства</t>
   </si>
   <si>
     <t>Совершенствование качества и доступности оказания экстренной медицинской помощи пострадавшим в ЧС, экстренной консультативной медицинской помощи больным и пострадавшим в ЧС, санитарно-авиационной эвакуации</t>
@@ -288,10 +267,6 @@
 3. Обеспечение территориальной  доступности лекарственной помощи</t>
   </si>
   <si>
-    <t>1. Закупка путевок на санаторно-курортное лечение
-2. Укрепление метериально-технической базы санаториев</t>
-  </si>
-  <si>
     <t xml:space="preserve">Оказание паллиативной помощи взрослым в стационарных условиях (включая койки сестринского ухода) </t>
   </si>
   <si>
@@ -299,12 +274,6 @@
   </si>
   <si>
     <t>1. Проведение конкурса "Лучший врач года"- 3250,0 тыс.                                2. Перевод медицинских и фармацевтических организаций на «эффективный контракт» с работниками.</t>
-  </si>
-  <si>
-    <t>"Равитие системы медицинской профилактики неинфекционных заболеваний и формирования здорового образа жизни, в том числе у детей. Профилактика развития зависимостей, включая сокращение  потребления табака, алкоголя, наркоточеских средств и психоактивных веществ, в том числе у детей"</t>
-  </si>
-  <si>
-    <t>"Профилактика инфекционных заболеваний, ключая иммунопрофилактику"</t>
   </si>
   <si>
     <t>"Развитие нефрологической службы в рамках государственно-частного партнерства"</t>
@@ -664,9 +633,6 @@
     <t>6.2.</t>
   </si>
   <si>
-    <t>Начальник отдеа оказания лечебно-профилактической помощи матерям и детям Киньшина М.М.</t>
-  </si>
-  <si>
     <t>"Оказание паллиативной помощи детям "</t>
   </si>
   <si>
@@ -1067,20 +1033,6 @@
   <si>
     <t>1. Проведение семинаров, изготовление и приобретение информационных материалов;
 2. Приобретение оборудования, расходных материалов для  кабинетов здорового питания в центрах здоровья для взрослых и детей</t>
-  </si>
-  <si>
-    <t>1. Закупка иммунобиологических препаратов  для иммунизации населения по эпидпоказаниям (бешенство, гепатит А, туляремия, брюшной тиф, корь, дизентерия, пневмококковая инфекция, грипп) и  туберкулинодиагностику.                                                  2.Оплата услуги  по получению, входному контролю,хранению, выдаче и экстренной доставке иммунобиологических  препаратов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Совершенствование диагностики и лечения заболеваний системы кровообращения в соответствии с порядками и стандартами.
-2. Совершенствование маршрутизации больных в условиях трехуровневой системы здравоохранения Воронежской области.
-3. Увеличение объемов догоспитального тромболизиса при остром инфаркте миокарда с подъемом сегмента ST в районах области и городе Воронеже.
-4. Сохранение объемов высокотехнологичной медицинской помощи при болезнях системы кровообращения, включая операции </t>
-  </si>
-  <si>
-    <t>аортокоронарного шунтирования при ишемической болезни сердца, в том числе срочные чрескожные коронарные вмешательства при остром коронарном синдроме, на базе регионального сосудистого центра БУЗ ВО «ВОКБ № 1».
-5. Совершенствование высокотехнологичных методов лечения: эндоваскулярных, нейрохирургических методов лечения.              
-6. Совершенствование оказания реабилитационной медицинской помощи больным, перенесшим ОКС и оперативные вмешательства на сердце и сосудах.</t>
   </si>
   <si>
     <t>1. Обследование населения области с целью выявления лиц, инфицированных вирусами иммунодефицита человека и гепатитов B и C. 
@@ -1177,19 +1129,10 @@
 Кирмас Л.В.</t>
   </si>
   <si>
-    <t>Начальник отдела скорой и первичной медико-санитарной помощи 
-Кирмас Л.В.
-Начальник отдела специализированной и высокотехнологичной медицинской помощи Остроушко Н.И.</t>
-  </si>
-  <si>
     <t>Начальник отдела специализированной и высокотехнологичной медицинской помощи  Остроушко Н.И.</t>
   </si>
   <si>
     <t>Начальник отдела специализированной и высокотехнологичной медицинской помощи Остроушко Н.И.</t>
-  </si>
-  <si>
-    <t>Начальник отдела специализированной и высокотехнологичной медицинской помощи Остроушко Н.И.
-начальник отдела оказания лечебно-профилактической помощи матерям и детям Киньшина М.М.</t>
   </si>
   <si>
     <t>Начальник отдела специализированной и высокотехнологичной медицинской помощи Остроушко Н.И., 
@@ -1222,16 +1165,68 @@
   <si>
     <t>Начальник отдела прогноза программ, проектов развития и информационных технологий департамента здравоохранения Воронежской области Цурган Д.А., начальник отдела планирования и реализации программ департамента строительной политики Воронежской области Турусов Ю.М. (по согласованию)</t>
   </si>
+  <si>
+    <t>1. Совершенствование диагностики и лечения заболеваний системы кровообращения в соответствии с порядками и стандартами.
+2. Совершенствование маршрутизации больных в условиях трехуровневой системы здравоохранения Воронежской области.
+3. Увеличение объемов догоспитального тромболизиса при остром инфаркте миокарда с подъемом сегмента ST в районах области и городе Воронеже.
+4. Сохранение объемов высокотехнологичной медицинской помощи при болезнях системы кровообращения, включая операции аортокоронарного шунтирования при ишемической болезни сердца, в том числе срочные чрескожные коронарные вмешательства при остром коронарном синдроме, на базе регионального сосудистого центра БУЗ ВО «ВОКБ № 1».
+5. Совершенствование высокотехнологичных методов лечения: эндоваскулярных, нейрохирургических методов лечения.              
+6. Совершенствование оказания реабилитационной медицинской помощи больным, перенесшим ОКС и оперативные вмешательства на сердце и сосудах.</t>
+  </si>
+  <si>
+    <t>Начальник отдела скорой и первичной медико-санитарной помощи 
+Кирмас Л.В.,
+Начальник отдела специализированной и высокотехнологичной медицинской помощи Остроушко Н.И.</t>
+  </si>
+  <si>
+    <t>Начальник отдела специализированной и высокотехнологичной медицинской помощи Остроушко Н.И.,
+начальник отдела оказания лечебно-профилактической помощи матерям и детям Киньшина М.М.</t>
+  </si>
+  <si>
+    <t>Основное 
+мероприятие 7.2.</t>
+  </si>
+  <si>
+    <t>"Развитие системы медицинской профилактики неинфекционных заболеваний и формирования здорового образа жизни, в том числе у детей. Профилактика развития зависимостей, включая сокращение  потребления табака, алкоголя, наркотических средств и психоактивных веществ, в том числе у детей"</t>
+  </si>
+  <si>
+    <t>"Профилактика инфекционных заболеваний, включая иммунопрофилактику"</t>
+  </si>
+  <si>
+    <t>1. Закупка иммунобиологических препаратов  для иммунизации населения по эпидпоказаниям (бешенство, гепатит А, туляремия, брюшной тиф, корь, дизентерия, пневмококковая инфекция, грипп) и  туберкулинодиагностику.                                                  2.Оплата услуги  по получению, входному контролю, хранению, выдаче и экстренной доставке иммунобиологических  препаратов.</t>
+  </si>
+  <si>
+    <t>"Совершенствование оказания специализированной, включая высокотехнологичную, медицинской помощи, скорой, в том числе скорой специализированной, медицинской помощи, медицинской эвакуации"</t>
+  </si>
+  <si>
+    <t>"Совершенствование оказания медицинской помощи лицам, инфицированным вирусом иммунодефицита человека, гепатитами В и С"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Совершенствование оказания скорой, в том числе  скорой специализированной, медицинской помощи, медицинской эвакуации" </t>
+  </si>
+  <si>
+    <t>Удовлетворение потребности населения Воронежской области в гемодиализной помощи путем обеспечения функционирования существующих и дальнейшего развития сети гемодиализных отделений</t>
+  </si>
+  <si>
+    <t>Оказание видов высокотехнологичной медицинской помощи на основе ядерных медицинских технологий в рамках государственно-частного партнерства</t>
+  </si>
+  <si>
+    <t>1. Закупка путевок на санаторно-курортное лечение
+2. Укрепление материально-технической базы санаториев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Осуществление  лабораторного контроля качества лекарственных препаратов; информационно-аналитического скрининга лекарственных средств, находящихся в обращении в аптечной и лечебной сети области;  осуществления мониторинга и регистрации  неблагоприятных побочных реакций </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -1730,7 +1725,7 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
@@ -1953,7 +1948,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1980,17 +1975,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -2012,14 +2007,14 @@
     <cellStyle name="Название" xfId="16" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="17" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="18"/>
-    <cellStyle name="Обычный 2_Форма к отчету-испр" xfId="19"/>
+    <cellStyle name="Обычный 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Обычный 2_Форма к отчету-испр" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Плохой" xfId="20" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="21" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="22" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Связанная ячейка" xfId="23" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="24" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Финансовый 2" xfId="25"/>
+    <cellStyle name="Финансовый 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Хороший" xfId="26" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2111,6 +2106,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2146,6 +2158,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2321,73 +2350,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A189" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
     <col min="3" max="3" width="64.6640625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" customWidth="1"/>
-    <col min="5" max="5" width="41.88671875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="E1" s="75" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="64.5" customHeight="1">
       <c r="A3" s="83" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B3" s="83"/>
       <c r="C3" s="83"/>
       <c r="D3" s="83"/>
       <c r="E3" s="83"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="C4" s="31"/>
       <c r="D4" s="2"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="85" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E5" s="86"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="94.5" customHeight="1">
       <c r="A6" s="85"/>
       <c r="B6" s="85"/>
       <c r="C6" s="84"/>
       <c r="D6" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="16">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -2404,2322 +2433,2312 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="34">
       <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="34">
       <c r="A9" s="63" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="17">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="15"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="85">
       <c r="A11" s="61" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="68">
       <c r="A12" s="7"/>
       <c r="B12" s="20"/>
       <c r="C12" s="22" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D12" s="57"/>
       <c r="E12" s="41"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="34">
       <c r="A13" s="60" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="109.2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="102">
       <c r="A14" s="7"/>
       <c r="B14" s="43"/>
       <c r="C14" s="23" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="41"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="34">
       <c r="A15" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="257.25" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="43"/>
       <c r="C16" s="23" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="38"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="195" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="156" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="20"/>
       <c r="C18" s="22" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="41"/>
     </row>
-    <row r="19" spans="1:5" s="17" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="17" customFormat="1" ht="68">
       <c r="A19" s="63" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>15</v>
+        <v>348</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="17" customFormat="1" ht="17">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="15"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" s="17" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="17" customFormat="1" ht="114" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="17" customFormat="1" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="17" customFormat="1" ht="230.25" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="81"/>
       <c r="C22" s="80" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="D22" s="82"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" s="17" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="17" customFormat="1" ht="47.25" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="17" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="17" customFormat="1" ht="171" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="20"/>
       <c r="C24" s="23" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" s="17" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="17" customFormat="1" ht="51">
       <c r="A25" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="17" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="17" customFormat="1" ht="86.25" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D26" s="78"/>
       <c r="E26" s="42"/>
     </row>
-    <row r="27" spans="1:5" s="17" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="17" customFormat="1" ht="102">
       <c r="A27" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="17" customFormat="1" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="17" customFormat="1" ht="238.5" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="79" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="42"/>
     </row>
-    <row r="29" spans="1:5" s="17" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="17" customFormat="1" ht="102">
       <c r="A29" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="17" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="17" customFormat="1" ht="147" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="41"/>
     </row>
-    <row r="31" spans="1:5" s="17" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20" t="s">
+    <row r="31" spans="1:5" s="17" customFormat="1" ht="102">
+      <c r="A31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="17" customFormat="1" ht="93.75" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="42"/>
+    </row>
+    <row r="33" spans="1:5" s="17" customFormat="1" ht="102">
+      <c r="A33" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="17" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="42"/>
+    </row>
+    <row r="35" spans="1:5" s="17" customFormat="1" ht="51">
+      <c r="A35" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="17" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D36" s="57"/>
+      <c r="E36" s="41"/>
+    </row>
+    <row r="37" spans="1:5" s="17" customFormat="1" ht="51">
+      <c r="A37" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="17" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="42"/>
+    </row>
+    <row r="39" spans="1:5" s="39" customFormat="1" ht="51">
+      <c r="A39" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="17" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="42"/>
+    </row>
+    <row r="41" spans="1:5" s="17" customFormat="1" ht="51">
+      <c r="A41" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="42"/>
+    </row>
+    <row r="43" spans="1:5" s="39" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A43" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="39" customFormat="1" ht="303" customHeight="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="57"/>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A45" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="39" customFormat="1" ht="17">
+      <c r="A46" s="7"/>
+      <c r="B46" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" s="39" customFormat="1" ht="51">
+      <c r="A47" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="39" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="42"/>
+    </row>
+    <row r="49" spans="1:5" s="39" customFormat="1" ht="51">
+      <c r="A49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="39" customFormat="1" ht="54" customHeight="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="D50" s="57"/>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:5" s="39" customFormat="1" ht="51">
+      <c r="A51" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="39" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="57"/>
+      <c r="E52" s="42"/>
+    </row>
+    <row r="53" spans="1:5" s="39" customFormat="1" ht="48" customHeight="1">
+      <c r="A53" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="67.5" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="41"/>
+    </row>
+    <row r="55" spans="1:5" ht="34">
+      <c r="A55" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="25"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" ht="51">
+      <c r="A57" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="345.75" customHeight="1">
+      <c r="A58" s="7"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D58" s="57"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="51">
+      <c r="A59" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="261.75" customHeight="1">
+      <c r="A60" s="7"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D60" s="57"/>
+      <c r="E60" s="38"/>
+    </row>
+    <row r="61" spans="1:5" ht="51">
+      <c r="A61" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="252" customHeight="1">
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D62" s="15"/>
+      <c r="E62" s="38"/>
+    </row>
+    <row r="63" spans="1:5" ht="51">
+      <c r="A63" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="134.25" customHeight="1">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="41"/>
-    </row>
-    <row r="32" spans="1:5" s="17" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="17" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="20" t="s">
+      <c r="D64" s="15"/>
+      <c r="E64" s="38"/>
+    </row>
+    <row r="65" spans="1:5" ht="51">
+      <c r="A65" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="114.75" customHeight="1">
+      <c r="A66" s="7"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="D66" s="21"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5" ht="51">
+      <c r="A67" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="279" customHeight="1">
+      <c r="A68" s="7"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="D68" s="57"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="34">
+      <c r="A69" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17">
+      <c r="A70" s="7"/>
+      <c r="B70" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="1:5" ht="85">
+      <c r="A71" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="52.5" customHeight="1">
+      <c r="A72" s="7"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D72" s="57"/>
+      <c r="E72" s="42"/>
+    </row>
+    <row r="73" spans="1:5" ht="85.5" customHeight="1">
+      <c r="A73" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="34">
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="38"/>
+    </row>
+    <row r="75" spans="1:5" ht="34">
+      <c r="A75" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17">
+      <c r="A76" s="7"/>
+      <c r="B76" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="14"/>
+    </row>
+    <row r="77" spans="1:5" ht="51">
+      <c r="A77" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="35.25" customHeight="1">
+      <c r="A78" s="29"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="57"/>
+      <c r="E78" s="14"/>
+    </row>
+    <row r="79" spans="1:5" ht="51">
+      <c r="A79" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="34">
+      <c r="A80" s="7"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+    </row>
+    <row r="81" spans="1:6" ht="53.25" customHeight="1">
+      <c r="A81" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17">
+      <c r="A82" s="7"/>
+      <c r="B82" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="25"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="9"/>
+    </row>
+    <row r="83" spans="1:6" ht="48.75" customHeight="1">
+      <c r="A83" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="F83" s="19"/>
+    </row>
+    <row r="84" spans="1:6" ht="55.5" customHeight="1">
+      <c r="A84" s="7"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" s="57"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="19"/>
+    </row>
+    <row r="85" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A85" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="F85" s="19"/>
+    </row>
+    <row r="86" spans="1:6" ht="59.25" customHeight="1">
+      <c r="A86" s="7"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="57"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="19"/>
+    </row>
+    <row r="87" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A87" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="F87" s="19"/>
+    </row>
+    <row r="88" spans="1:6" ht="116.25" customHeight="1">
+      <c r="A88" s="7"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D88" s="57"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="19"/>
+    </row>
+    <row r="89" spans="1:6" ht="34">
+      <c r="A89" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="F89" s="19"/>
+    </row>
+    <row r="90" spans="1:6" ht="119">
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="42"/>
-    </row>
-    <row r="34" spans="1:5" s="17" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="17" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
+      <c r="D90" s="15"/>
+      <c r="E90" s="42"/>
+    </row>
+    <row r="91" spans="1:6" ht="57" customHeight="1">
+      <c r="A91" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="17">
+      <c r="A92" s="7"/>
+      <c r="B92" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="16"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="14"/>
+    </row>
+    <row r="93" spans="1:6" ht="66.75" customHeight="1">
+      <c r="A93" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="232.5" customHeight="1">
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="42"/>
-    </row>
-    <row r="36" spans="1:5" s="17" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="17" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" spans="1:5" s="17" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="D94" s="15"/>
+      <c r="E94" s="41"/>
+    </row>
+    <row r="95" spans="1:6" ht="51.75" customHeight="1">
+      <c r="A95" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95" s="38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="51">
+      <c r="A96" s="46"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="15"/>
+      <c r="E96" s="41"/>
+    </row>
+    <row r="97" spans="1:5" ht="56.25" customHeight="1">
+      <c r="A97" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="39" customFormat="1" ht="85">
+      <c r="A98" s="7"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D98" s="57"/>
+      <c r="E98" s="42"/>
+    </row>
+    <row r="99" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A99" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E99" s="62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="39" customFormat="1" ht="17">
+      <c r="A100" s="7"/>
+      <c r="B100" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="16"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="14"/>
+    </row>
+    <row r="101" spans="1:5" s="39" customFormat="1" ht="51">
+      <c r="A101" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E101" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="42"/>
-    </row>
-    <row r="40" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="42"/>
-    </row>
-    <row r="42" spans="1:5" s="17" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="42"/>
-    </row>
-    <row r="44" spans="1:5" s="39" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    </row>
+    <row r="102" spans="1:5" s="39" customFormat="1" ht="150" customHeight="1">
+      <c r="A102" s="7"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" s="57"/>
+      <c r="E102" s="42"/>
+    </row>
+    <row r="103" spans="1:5" s="39" customFormat="1" ht="51">
+      <c r="A103" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="39" customFormat="1" ht="66" customHeight="1">
+      <c r="A104" s="7"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="D104" s="57"/>
+      <c r="E104" s="42"/>
+    </row>
+    <row r="105" spans="1:5" s="39" customFormat="1" ht="51">
+      <c r="A105" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C105" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D105" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="39" customFormat="1" ht="68">
+      <c r="A106" s="7"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D106" s="57"/>
+      <c r="E106" s="42"/>
+    </row>
+    <row r="107" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A107" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="39" customFormat="1" ht="17">
+      <c r="A108" s="7"/>
+      <c r="B108" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="16"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="14"/>
+    </row>
+    <row r="109" spans="1:5" s="39" customFormat="1" ht="102">
+      <c r="A109" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E109" s="41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="39" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A110" s="7"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D110" s="57"/>
+      <c r="E110" s="42"/>
+    </row>
+    <row r="111" spans="1:5" s="39" customFormat="1" ht="153">
+      <c r="A111" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D111" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E111" s="41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="39" customFormat="1" ht="85">
+      <c r="A112" s="7"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112" s="57"/>
+      <c r="E112" s="41"/>
+    </row>
+    <row r="113" spans="1:5" s="39" customFormat="1" ht="144" customHeight="1">
+      <c r="A113" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="E113" s="41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="39" customFormat="1" ht="17">
+      <c r="A114" s="7"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="D114" s="57"/>
+      <c r="E114" s="14"/>
+    </row>
+    <row r="115" spans="1:5" s="39" customFormat="1" ht="51">
+      <c r="A115" s="87"/>
+      <c r="B115" s="90"/>
+      <c r="C115" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D115" s="88"/>
+      <c r="E115" s="89"/>
+    </row>
+    <row r="116" spans="1:5" s="39" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A116" s="87"/>
+      <c r="B116" s="91"/>
+      <c r="C116" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D116" s="88"/>
+      <c r="E116" s="89"/>
+    </row>
+    <row r="117" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A117" s="87"/>
+      <c r="B117" s="91"/>
+      <c r="C117" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117" s="88"/>
+      <c r="E117" s="89"/>
+    </row>
+    <row r="118" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A118" s="87"/>
+      <c r="B118" s="91"/>
+      <c r="C118" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D118" s="88"/>
+      <c r="E118" s="89"/>
+    </row>
+    <row r="119" spans="1:5" s="39" customFormat="1" ht="51" customHeight="1">
+      <c r="A119" s="87"/>
+      <c r="B119" s="91"/>
+      <c r="C119" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D119" s="88"/>
+      <c r="E119" s="89"/>
+    </row>
+    <row r="120" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A120" s="87"/>
+      <c r="B120" s="91"/>
+      <c r="C120" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D120" s="88"/>
+      <c r="E120" s="89"/>
+    </row>
+    <row r="121" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A121" s="87"/>
+      <c r="B121" s="91"/>
+      <c r="C121" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D121" s="88"/>
+      <c r="E121" s="89"/>
+    </row>
+    <row r="122" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A122" s="87"/>
+      <c r="B122" s="91"/>
+      <c r="C122" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D122" s="88"/>
+      <c r="E122" s="89"/>
+    </row>
+    <row r="123" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A123" s="87"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D123" s="88"/>
+      <c r="E123" s="89"/>
+    </row>
+    <row r="124" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A124" s="87"/>
+      <c r="B124" s="91"/>
+      <c r="C124" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="D124" s="88"/>
+      <c r="E124" s="89"/>
+    </row>
+    <row r="125" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A125" s="87"/>
+      <c r="B125" s="91"/>
+      <c r="C125" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D125" s="88"/>
+      <c r="E125" s="89"/>
+    </row>
+    <row r="126" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A126" s="87"/>
+      <c r="B126" s="91"/>
+      <c r="C126" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D126" s="88"/>
+      <c r="E126" s="89"/>
+    </row>
+    <row r="127" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A127" s="87"/>
+      <c r="B127" s="91"/>
+      <c r="C127" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="D127" s="88"/>
+      <c r="E127" s="89"/>
+    </row>
+    <row r="128" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A128" s="87"/>
+      <c r="B128" s="91"/>
+      <c r="C128" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D128" s="88"/>
+      <c r="E128" s="89"/>
+    </row>
+    <row r="129" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A129" s="87"/>
+      <c r="B129" s="91"/>
+      <c r="C129" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="88"/>
+      <c r="E129" s="89"/>
+    </row>
+    <row r="130" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A130" s="87"/>
+      <c r="B130" s="91"/>
+      <c r="C130" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="D130" s="88"/>
+      <c r="E130" s="89"/>
+    </row>
+    <row r="131" spans="1:5" s="39" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A131" s="87"/>
+      <c r="B131" s="91"/>
+      <c r="C131" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D131" s="88"/>
+      <c r="E131" s="89"/>
+    </row>
+    <row r="132" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A132" s="87"/>
+      <c r="B132" s="91"/>
+      <c r="C132" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="D132" s="88"/>
+      <c r="E132" s="89"/>
+    </row>
+    <row r="133" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A133" s="87"/>
+      <c r="B133" s="91"/>
+      <c r="C133" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D133" s="88"/>
+      <c r="E133" s="89"/>
+    </row>
+    <row r="134" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A134" s="87"/>
+      <c r="B134" s="91"/>
+      <c r="C134" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D134" s="88"/>
+      <c r="E134" s="89"/>
+    </row>
+    <row r="135" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A135" s="87"/>
+      <c r="B135" s="91"/>
+      <c r="C135" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="D135" s="88"/>
+      <c r="E135" s="89"/>
+    </row>
+    <row r="136" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A136" s="87"/>
+      <c r="B136" s="91"/>
+      <c r="C136" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="D136" s="88"/>
+      <c r="E136" s="89"/>
+    </row>
+    <row r="137" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A137" s="87"/>
+      <c r="B137" s="91"/>
+      <c r="C137" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D137" s="88"/>
+      <c r="E137" s="89"/>
+    </row>
+    <row r="138" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A138" s="87"/>
+      <c r="B138" s="91"/>
+      <c r="C138" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D138" s="88"/>
+      <c r="E138" s="89"/>
+    </row>
+    <row r="139" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A139" s="87"/>
+      <c r="B139" s="91"/>
+      <c r="C139" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="D139" s="88"/>
+      <c r="E139" s="89"/>
+    </row>
+    <row r="140" spans="1:5" s="39" customFormat="1" ht="36" customHeight="1">
+      <c r="A140" s="87"/>
+      <c r="B140" s="91"/>
+      <c r="C140" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D140" s="88"/>
+      <c r="E140" s="89"/>
+    </row>
+    <row r="141" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A141" s="87"/>
+      <c r="B141" s="91"/>
+      <c r="C141" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="D141" s="88"/>
+      <c r="E141" s="89"/>
+    </row>
+    <row r="142" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A142" s="87"/>
+      <c r="B142" s="91"/>
+      <c r="C142" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D142" s="88"/>
+      <c r="E142" s="89"/>
+    </row>
+    <row r="143" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A143" s="87"/>
+      <c r="B143" s="91"/>
+      <c r="C143" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D143" s="88"/>
+      <c r="E143" s="89"/>
+    </row>
+    <row r="144" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A144" s="87"/>
+      <c r="B144" s="91"/>
+      <c r="C144" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D144" s="88"/>
+      <c r="E144" s="89"/>
+    </row>
+    <row r="145" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A145" s="87"/>
+      <c r="B145" s="91"/>
+      <c r="C145" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="D145" s="88"/>
+      <c r="E145" s="89"/>
+    </row>
+    <row r="146" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A146" s="87"/>
+      <c r="B146" s="91"/>
+      <c r="C146" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="D146" s="88"/>
+      <c r="E146" s="89"/>
+    </row>
+    <row r="147" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A147" s="87"/>
+      <c r="B147" s="91"/>
+      <c r="C147" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="88"/>
+      <c r="E147" s="89"/>
+    </row>
+    <row r="148" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A148" s="87"/>
+      <c r="B148" s="91"/>
+      <c r="C148" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D148" s="88"/>
+      <c r="E148" s="89"/>
+    </row>
+    <row r="149" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A149" s="87"/>
+      <c r="B149" s="91"/>
+      <c r="C149" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="88"/>
+      <c r="E149" s="89"/>
+    </row>
+    <row r="150" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A150" s="87"/>
+      <c r="B150" s="91"/>
+      <c r="C150" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="D150" s="88"/>
+      <c r="E150" s="89"/>
+    </row>
+    <row r="151" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A151" s="87"/>
+      <c r="B151" s="91"/>
+      <c r="C151" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="D151" s="88"/>
+      <c r="E151" s="89"/>
+    </row>
+    <row r="152" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A152" s="87"/>
+      <c r="B152" s="91"/>
+      <c r="C152" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="D152" s="88"/>
+      <c r="E152" s="89"/>
+    </row>
+    <row r="153" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A153" s="87"/>
+      <c r="B153" s="91"/>
+      <c r="C153" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D153" s="88"/>
+      <c r="E153" s="89"/>
+    </row>
+    <row r="154" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A154" s="87"/>
+      <c r="B154" s="91"/>
+      <c r="C154" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="D154" s="88"/>
+      <c r="E154" s="89"/>
+    </row>
+    <row r="155" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A155" s="87"/>
+      <c r="B155" s="91"/>
+      <c r="C155" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="88"/>
+      <c r="E155" s="89"/>
+    </row>
+    <row r="156" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A156" s="87"/>
+      <c r="B156" s="91"/>
+      <c r="C156" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="D156" s="88"/>
+      <c r="E156" s="89"/>
+    </row>
+    <row r="157" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A157" s="87"/>
+      <c r="B157" s="91"/>
+      <c r="C157" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="D157" s="88"/>
+      <c r="E157" s="89"/>
+    </row>
+    <row r="158" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A158" s="87"/>
+      <c r="B158" s="91"/>
+      <c r="C158" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="D158" s="88"/>
+      <c r="E158" s="89"/>
+    </row>
+    <row r="159" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A159" s="87"/>
+      <c r="B159" s="91"/>
+      <c r="C159" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D159" s="88"/>
+      <c r="E159" s="89"/>
+    </row>
+    <row r="160" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A160" s="87"/>
+      <c r="B160" s="91"/>
+      <c r="C160" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="D160" s="88"/>
+      <c r="E160" s="89"/>
+    </row>
+    <row r="161" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A161" s="87"/>
+      <c r="B161" s="91"/>
+      <c r="C161" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="D161" s="88"/>
+      <c r="E161" s="89"/>
+    </row>
+    <row r="162" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A162" s="87"/>
+      <c r="B162" s="91"/>
+      <c r="C162" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D162" s="88"/>
+      <c r="E162" s="89"/>
+    </row>
+    <row r="163" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A163" s="87"/>
+      <c r="B163" s="91"/>
+      <c r="C163" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="D163" s="88"/>
+      <c r="E163" s="89"/>
+    </row>
+    <row r="164" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A164" s="87"/>
+      <c r="B164" s="91"/>
+      <c r="C164" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="D164" s="88"/>
+      <c r="E164" s="89"/>
+    </row>
+    <row r="165" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A165" s="87"/>
+      <c r="B165" s="91"/>
+      <c r="C165" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="D165" s="88"/>
+      <c r="E165" s="89"/>
+    </row>
+    <row r="166" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A166" s="87"/>
+      <c r="B166" s="91"/>
+      <c r="C166" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D166" s="88"/>
+      <c r="E166" s="89"/>
+    </row>
+    <row r="167" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A167" s="87"/>
+      <c r="B167" s="91"/>
+      <c r="C167" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D167" s="88"/>
+      <c r="E167" s="89"/>
+    </row>
+    <row r="168" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A168" s="87"/>
+      <c r="B168" s="91"/>
+      <c r="C168" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D168" s="88"/>
+      <c r="E168" s="89"/>
+    </row>
+    <row r="169" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A169" s="87"/>
+      <c r="B169" s="91"/>
+      <c r="C169" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="D169" s="88"/>
+      <c r="E169" s="89"/>
+    </row>
+    <row r="170" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A170" s="87"/>
+      <c r="B170" s="91"/>
+      <c r="C170" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="D170" s="88"/>
+      <c r="E170" s="89"/>
+    </row>
+    <row r="171" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A171" s="87"/>
+      <c r="B171" s="91"/>
+      <c r="C171" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D171" s="88"/>
+      <c r="E171" s="89"/>
+    </row>
+    <row r="172" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A172" s="87"/>
+      <c r="B172" s="91"/>
+      <c r="C172" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="D172" s="88"/>
+      <c r="E172" s="89"/>
+    </row>
+    <row r="173" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A173" s="87"/>
+      <c r="B173" s="91"/>
+      <c r="C173" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="D173" s="88"/>
+      <c r="E173" s="89"/>
+    </row>
+    <row r="174" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A174" s="87"/>
+      <c r="B174" s="91"/>
+      <c r="C174" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="D174" s="88"/>
+      <c r="E174" s="89"/>
+    </row>
+    <row r="175" spans="1:5" s="39" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A175" s="87"/>
+      <c r="B175" s="91"/>
+      <c r="C175" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="D175" s="88"/>
+      <c r="E175" s="89"/>
+    </row>
+    <row r="176" spans="1:5" s="39" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A176" s="87"/>
+      <c r="B176" s="91"/>
+      <c r="C176" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="D176" s="88"/>
+      <c r="E176" s="89"/>
+    </row>
+    <row r="177" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A177" s="87"/>
+      <c r="B177" s="91"/>
+      <c r="C177" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="D177" s="88"/>
+      <c r="E177" s="89"/>
+    </row>
+    <row r="178" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A178" s="87"/>
+      <c r="B178" s="91"/>
+      <c r="C178" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D178" s="88"/>
+      <c r="E178" s="89"/>
+    </row>
+    <row r="179" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A179" s="87"/>
+      <c r="B179" s="91"/>
+      <c r="C179" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="D179" s="88"/>
+      <c r="E179" s="89"/>
+    </row>
+    <row r="180" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A180" s="87"/>
+      <c r="B180" s="91"/>
+      <c r="C180" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="D180" s="88"/>
+      <c r="E180" s="89"/>
+    </row>
+    <row r="181" spans="1:5" s="39" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A181" s="87"/>
+      <c r="B181" s="91"/>
+      <c r="C181" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="D181" s="88"/>
+      <c r="E181" s="89"/>
+    </row>
+    <row r="182" spans="1:5" s="39" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A182" s="87"/>
+      <c r="B182" s="91"/>
+      <c r="C182" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D182" s="88"/>
+      <c r="E182" s="89"/>
+    </row>
+    <row r="183" spans="1:5" s="39" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A183" s="87"/>
+      <c r="B183" s="91"/>
+      <c r="C183" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="D183" s="88"/>
+      <c r="E183" s="89"/>
+    </row>
+    <row r="184" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A184" s="87"/>
+      <c r="B184" s="91"/>
+      <c r="C184" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D184" s="88"/>
+      <c r="E184" s="89"/>
+    </row>
+    <row r="185" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A185" s="87"/>
+      <c r="B185" s="91"/>
+      <c r="C185" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="D185" s="88"/>
+      <c r="E185" s="89"/>
+    </row>
+    <row r="186" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A186" s="87"/>
+      <c r="B186" s="91"/>
+      <c r="C186" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="D186" s="88"/>
+      <c r="E186" s="89"/>
+    </row>
+    <row r="187" spans="1:5" s="39" customFormat="1" ht="34">
+      <c r="A187" s="87"/>
+      <c r="B187" s="91"/>
+      <c r="C187" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="D187" s="88"/>
+      <c r="E187" s="89"/>
+    </row>
+    <row r="188" spans="1:5" ht="73.5" customHeight="1">
+      <c r="A188" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="B188" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C188" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D188" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E188" s="24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="17">
+      <c r="A189" s="29"/>
+      <c r="B189" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C189" s="74"/>
+      <c r="D189" s="56"/>
+      <c r="E189" s="38"/>
+    </row>
+    <row r="190" spans="1:5" ht="66.75" customHeight="1">
+      <c r="A190" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="B190" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C190" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D190" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E190" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="48" customHeight="1">
+      <c r="A191" s="29"/>
+      <c r="B191" s="30"/>
+      <c r="C191" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D191" s="15"/>
+      <c r="E191" s="14"/>
+    </row>
+    <row r="192" spans="1:5" ht="68">
+      <c r="A192" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="B192" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C192" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D192" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E192" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="17">
+      <c r="A193" s="29"/>
+      <c r="B193" s="30"/>
+      <c r="C193" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="D193" s="15"/>
+      <c r="E193" s="14"/>
+    </row>
+    <row r="194" spans="1:5" ht="34">
+      <c r="A194" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="B194" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C194" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E194" s="41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="162.75" customHeight="1">
+      <c r="A195" s="29"/>
+      <c r="B195" s="30"/>
+      <c r="C195" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" s="15"/>
+      <c r="E195" s="14"/>
+    </row>
+    <row r="196" spans="1:5" ht="76.5" customHeight="1">
+      <c r="A196" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="B196" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C196" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D196" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E196" s="24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" s="47" customFormat="1" ht="17">
+      <c r="A197" s="72"/>
+      <c r="B197" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C197" s="74"/>
+      <c r="D197" s="56"/>
+      <c r="E197" s="38"/>
+    </row>
+    <row r="198" spans="1:5" ht="68">
+      <c r="A198" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="B198" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C198" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D198" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E198" s="41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="52.5" customHeight="1">
+      <c r="A199" s="66"/>
+      <c r="B199" s="30"/>
+      <c r="C199" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D199" s="15"/>
+      <c r="E199" s="42"/>
+    </row>
+    <row r="200" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A200" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="B200" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C200" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D200" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E200" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A201" s="66"/>
+      <c r="B201" s="30"/>
+      <c r="C201" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" s="48"/>
+      <c r="E201" s="42"/>
+    </row>
+    <row r="202" spans="1:5" ht="51">
+      <c r="A202" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B202" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C202" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D202" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E202" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="72" customHeight="1">
+      <c r="A203" s="66"/>
+      <c r="B203" s="30"/>
+      <c r="C203" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D203" s="15"/>
+      <c r="E203" s="42"/>
+    </row>
+    <row r="204" spans="1:5" ht="34">
+      <c r="A204" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="B204" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C204" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D204" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E204" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A205" s="66"/>
+      <c r="B205" s="73"/>
+      <c r="C205" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D44" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="39" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="42"/>
-    </row>
-    <row r="46" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" s="62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="39" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="42"/>
-    </row>
-    <row r="50" spans="1:5" s="39" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="39" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="57"/>
-      <c r="E51" s="42"/>
-    </row>
-    <row r="52" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="41" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="39" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="42"/>
-    </row>
-    <row r="54" spans="1:5" s="39" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="41"/>
-    </row>
-    <row r="56" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E56" s="62" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="14"/>
-    </row>
-    <row r="58" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="345.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="D59" s="57"/>
-      <c r="E59" s="14"/>
-    </row>
-    <row r="60" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="261.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="D61" s="57"/>
-      <c r="E61" s="38"/>
-    </row>
-    <row r="62" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="252" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="38"/>
-    </row>
-    <row r="64" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="38"/>
-    </row>
-    <row r="66" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="14"/>
-    </row>
-    <row r="68" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="D69" s="57"/>
-      <c r="E69" s="14"/>
-    </row>
-    <row r="70" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="63" t="s">
-        <v>188</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="14"/>
-    </row>
-    <row r="72" spans="1:5" ht="78" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D72" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" s="41" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="42"/>
-    </row>
-    <row r="74" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D74" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E74" s="41" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="38"/>
-    </row>
-    <row r="76" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D76" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="E76" s="62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="14"/>
-    </row>
-    <row r="78" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" s="57"/>
-      <c r="E79" s="14"/>
-    </row>
-    <row r="80" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D80" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="41" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E82" s="32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="9"/>
-    </row>
-    <row r="84" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E84" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="F84" s="19"/>
-    </row>
-    <row r="85" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D85" s="57"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="19"/>
-    </row>
-    <row r="86" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B86" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E86" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="F86" s="19"/>
-    </row>
-    <row r="87" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D87" s="57"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="19"/>
-    </row>
-    <row r="88" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E88" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="F88" s="19"/>
-    </row>
-    <row r="89" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D89" s="57"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="19"/>
-    </row>
-    <row r="90" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D90" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E90" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="F90" s="19"/>
-    </row>
-    <row r="91" spans="1:6" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="D91" s="15"/>
-      <c r="E91" s="42"/>
-    </row>
-    <row r="92" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C92" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D92" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E92" s="62" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="14"/>
-    </row>
-    <row r="94" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B94" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C94" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E94" s="38" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="232.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="D95" s="15"/>
-      <c r="E95" s="41"/>
-    </row>
-    <row r="96" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B96" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D96" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E96" s="38" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A97" s="46"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D97" s="15"/>
-      <c r="E97" s="41"/>
-    </row>
-    <row r="98" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D98" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E98" s="38" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="39" customFormat="1" ht="78" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="57"/>
-      <c r="E99" s="42"/>
-    </row>
-    <row r="100" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="63" t="s">
-        <v>211</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E100" s="62" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-      <c r="B101" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="14"/>
-    </row>
-    <row r="102" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B102" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="D102" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E102" s="41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="39" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D103" s="57"/>
-      <c r="E103" s="42"/>
-    </row>
-    <row r="104" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B104" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C104" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="D104" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E104" s="41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="39" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D105" s="57"/>
-      <c r="E105" s="42"/>
-    </row>
-    <row r="106" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B106" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C106" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="D106" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E106" s="41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" s="39" customFormat="1" ht="78" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="D107" s="57"/>
-      <c r="E107" s="42"/>
-    </row>
-    <row r="108" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D108" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
-      <c r="B109" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="14"/>
-    </row>
-    <row r="110" spans="1:5" s="39" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D110" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E110" s="41" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="39" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="D111" s="57"/>
-      <c r="E111" s="42"/>
-    </row>
-    <row r="112" spans="1:5" s="39" customFormat="1" ht="140.4" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D112" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E112" s="41" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="39" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D113" s="57"/>
-      <c r="E113" s="41"/>
-    </row>
-    <row r="114" spans="1:5" s="39" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B114" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D114" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="E114" s="41" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="D115" s="57"/>
-      <c r="E115" s="14"/>
-    </row>
-    <row r="116" spans="1:5" s="39" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A116" s="87"/>
-      <c r="B116" s="88"/>
-      <c r="C116" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="D116" s="90"/>
-      <c r="E116" s="91"/>
-    </row>
-    <row r="117" spans="1:5" s="39" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="87"/>
-      <c r="B117" s="89"/>
-      <c r="C117" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="D117" s="90"/>
-      <c r="E117" s="91"/>
-    </row>
-    <row r="118" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="87"/>
-      <c r="B118" s="89"/>
-      <c r="C118" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="D118" s="90"/>
-      <c r="E118" s="91"/>
-    </row>
-    <row r="119" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="87"/>
-      <c r="B119" s="89"/>
-      <c r="C119" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="D119" s="90"/>
-      <c r="E119" s="91"/>
-    </row>
-    <row r="120" spans="1:5" s="39" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="87"/>
-      <c r="B120" s="89"/>
-      <c r="C120" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="D120" s="90"/>
-      <c r="E120" s="91"/>
-    </row>
-    <row r="121" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="87"/>
-      <c r="B121" s="89"/>
-      <c r="C121" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="D121" s="90"/>
-      <c r="E121" s="91"/>
-    </row>
-    <row r="122" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="87"/>
-      <c r="B122" s="89"/>
-      <c r="C122" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="D122" s="90"/>
-      <c r="E122" s="91"/>
-    </row>
-    <row r="123" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="87"/>
-      <c r="B123" s="89"/>
-      <c r="C123" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="D123" s="90"/>
-      <c r="E123" s="91"/>
-    </row>
-    <row r="124" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A124" s="87"/>
-      <c r="B124" s="89"/>
-      <c r="C124" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="D124" s="90"/>
-      <c r="E124" s="91"/>
-    </row>
-    <row r="125" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="87"/>
-      <c r="B125" s="89"/>
-      <c r="C125" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="D125" s="90"/>
-      <c r="E125" s="91"/>
-    </row>
-    <row r="126" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A126" s="87"/>
-      <c r="B126" s="89"/>
-      <c r="C126" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="D126" s="90"/>
-      <c r="E126" s="91"/>
-    </row>
-    <row r="127" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="87"/>
-      <c r="B127" s="89"/>
-      <c r="C127" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="D127" s="90"/>
-      <c r="E127" s="91"/>
-    </row>
-    <row r="128" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="87"/>
-      <c r="B128" s="89"/>
-      <c r="C128" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="D128" s="90"/>
-      <c r="E128" s="91"/>
-    </row>
-    <row r="129" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="87"/>
-      <c r="B129" s="89"/>
-      <c r="C129" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="D129" s="90"/>
-      <c r="E129" s="91"/>
-    </row>
-    <row r="130" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A130" s="87"/>
-      <c r="B130" s="89"/>
-      <c r="C130" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" s="90"/>
-      <c r="E130" s="91"/>
-    </row>
-    <row r="131" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A131" s="87"/>
-      <c r="B131" s="89"/>
-      <c r="C131" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="D131" s="90"/>
-      <c r="E131" s="91"/>
-    </row>
-    <row r="132" spans="1:5" s="39" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="87"/>
-      <c r="B132" s="89"/>
-      <c r="C132" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="D132" s="90"/>
-      <c r="E132" s="91"/>
-    </row>
-    <row r="133" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="87"/>
-      <c r="B133" s="89"/>
-      <c r="C133" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="D133" s="90"/>
-      <c r="E133" s="91"/>
-    </row>
-    <row r="134" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="87"/>
-      <c r="B134" s="89"/>
-      <c r="C134" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="D134" s="90"/>
-      <c r="E134" s="91"/>
-    </row>
-    <row r="135" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="87"/>
-      <c r="B135" s="89"/>
-      <c r="C135" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="D135" s="90"/>
-      <c r="E135" s="91"/>
-    </row>
-    <row r="136" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="87"/>
-      <c r="B136" s="89"/>
-      <c r="C136" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="D136" s="90"/>
-      <c r="E136" s="91"/>
-    </row>
-    <row r="137" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A137" s="87"/>
-      <c r="B137" s="89"/>
-      <c r="C137" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="D137" s="90"/>
-      <c r="E137" s="91"/>
-    </row>
-    <row r="138" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="87"/>
-      <c r="B138" s="89"/>
-      <c r="C138" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="D138" s="90"/>
-      <c r="E138" s="91"/>
-    </row>
-    <row r="139" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A139" s="87"/>
-      <c r="B139" s="89"/>
-      <c r="C139" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="D139" s="90"/>
-      <c r="E139" s="91"/>
-    </row>
-    <row r="140" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A140" s="87"/>
-      <c r="B140" s="89"/>
-      <c r="C140" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="D140" s="90"/>
-      <c r="E140" s="91"/>
-    </row>
-    <row r="141" spans="1:5" s="39" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="87"/>
-      <c r="B141" s="89"/>
-      <c r="C141" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D141" s="90"/>
-      <c r="E141" s="91"/>
-    </row>
-    <row r="142" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="87"/>
-      <c r="B142" s="89"/>
-      <c r="C142" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="D142" s="90"/>
-      <c r="E142" s="91"/>
-    </row>
-    <row r="143" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="87"/>
-      <c r="B143" s="89"/>
-      <c r="C143" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="D143" s="90"/>
-      <c r="E143" s="91"/>
-    </row>
-    <row r="144" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="87"/>
-      <c r="B144" s="89"/>
-      <c r="C144" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="D144" s="90"/>
-      <c r="E144" s="91"/>
-    </row>
-    <row r="145" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="87"/>
-      <c r="B145" s="89"/>
-      <c r="C145" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="D145" s="90"/>
-      <c r="E145" s="91"/>
-    </row>
-    <row r="146" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="87"/>
-      <c r="B146" s="89"/>
-      <c r="C146" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="D146" s="90"/>
-      <c r="E146" s="91"/>
-    </row>
-    <row r="147" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A147" s="87"/>
-      <c r="B147" s="89"/>
-      <c r="C147" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="D147" s="90"/>
-      <c r="E147" s="91"/>
-    </row>
-    <row r="148" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A148" s="87"/>
-      <c r="B148" s="89"/>
-      <c r="C148" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D148" s="90"/>
-      <c r="E148" s="91"/>
-    </row>
-    <row r="149" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A149" s="87"/>
-      <c r="B149" s="89"/>
-      <c r="C149" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="D149" s="90"/>
-      <c r="E149" s="91"/>
-    </row>
-    <row r="150" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="87"/>
-      <c r="B150" s="89"/>
-      <c r="C150" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="90"/>
-      <c r="E150" s="91"/>
-    </row>
-    <row r="151" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A151" s="87"/>
-      <c r="B151" s="89"/>
-      <c r="C151" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="D151" s="90"/>
-      <c r="E151" s="91"/>
-    </row>
-    <row r="152" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="87"/>
-      <c r="B152" s="89"/>
-      <c r="C152" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="D152" s="90"/>
-      <c r="E152" s="91"/>
-    </row>
-    <row r="153" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A153" s="87"/>
-      <c r="B153" s="89"/>
-      <c r="C153" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="D153" s="90"/>
-      <c r="E153" s="91"/>
-    </row>
-    <row r="154" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="87"/>
-      <c r="B154" s="89"/>
-      <c r="C154" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="D154" s="90"/>
-      <c r="E154" s="91"/>
-    </row>
-    <row r="155" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="87"/>
-      <c r="B155" s="89"/>
-      <c r="C155" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="D155" s="90"/>
-      <c r="E155" s="91"/>
-    </row>
-    <row r="156" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="87"/>
-      <c r="B156" s="89"/>
-      <c r="C156" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D156" s="90"/>
-      <c r="E156" s="91"/>
-    </row>
-    <row r="157" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="87"/>
-      <c r="B157" s="89"/>
-      <c r="C157" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="D157" s="90"/>
-      <c r="E157" s="91"/>
-    </row>
-    <row r="158" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A158" s="87"/>
-      <c r="B158" s="89"/>
-      <c r="C158" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="D158" s="90"/>
-      <c r="E158" s="91"/>
-    </row>
-    <row r="159" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="87"/>
-      <c r="B159" s="89"/>
-      <c r="C159" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="D159" s="90"/>
-      <c r="E159" s="91"/>
-    </row>
-    <row r="160" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="87"/>
-      <c r="B160" s="89"/>
-      <c r="C160" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="D160" s="90"/>
-      <c r="E160" s="91"/>
-    </row>
-    <row r="161" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="87"/>
-      <c r="B161" s="89"/>
-      <c r="C161" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="D161" s="90"/>
-      <c r="E161" s="91"/>
-    </row>
-    <row r="162" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A162" s="87"/>
-      <c r="B162" s="89"/>
-      <c r="C162" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="D162" s="90"/>
-      <c r="E162" s="91"/>
-    </row>
-    <row r="163" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A163" s="87"/>
-      <c r="B163" s="89"/>
-      <c r="C163" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="D163" s="90"/>
-      <c r="E163" s="91"/>
-    </row>
-    <row r="164" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="87"/>
-      <c r="B164" s="89"/>
-      <c r="C164" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="D164" s="90"/>
-      <c r="E164" s="91"/>
-    </row>
-    <row r="165" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A165" s="87"/>
-      <c r="B165" s="89"/>
-      <c r="C165" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="D165" s="90"/>
-      <c r="E165" s="91"/>
-    </row>
-    <row r="166" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="87"/>
-      <c r="B166" s="89"/>
-      <c r="C166" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="D166" s="90"/>
-      <c r="E166" s="91"/>
-    </row>
-    <row r="167" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="87"/>
-      <c r="B167" s="89"/>
-      <c r="C167" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="D167" s="90"/>
-      <c r="E167" s="91"/>
-    </row>
-    <row r="168" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="87"/>
-      <c r="B168" s="89"/>
-      <c r="C168" s="36" t="s">
-        <v>300</v>
-      </c>
-      <c r="D168" s="90"/>
-      <c r="E168" s="91"/>
-    </row>
-    <row r="169" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="87"/>
-      <c r="B169" s="89"/>
-      <c r="C169" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="D169" s="90"/>
-      <c r="E169" s="91"/>
-    </row>
-    <row r="170" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="87"/>
-      <c r="B170" s="89"/>
-      <c r="C170" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="D170" s="90"/>
-      <c r="E170" s="91"/>
-    </row>
-    <row r="171" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A171" s="87"/>
-      <c r="B171" s="89"/>
-      <c r="C171" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="D171" s="90"/>
-      <c r="E171" s="91"/>
-    </row>
-    <row r="172" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="87"/>
-      <c r="B172" s="89"/>
-      <c r="C172" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="D172" s="90"/>
-      <c r="E172" s="91"/>
-    </row>
-    <row r="173" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A173" s="87"/>
-      <c r="B173" s="89"/>
-      <c r="C173" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="D173" s="90"/>
-      <c r="E173" s="91"/>
-    </row>
-    <row r="174" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A174" s="87"/>
-      <c r="B174" s="89"/>
-      <c r="C174" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="D174" s="90"/>
-      <c r="E174" s="91"/>
-    </row>
-    <row r="175" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="87"/>
-      <c r="B175" s="89"/>
-      <c r="C175" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="D175" s="90"/>
-      <c r="E175" s="91"/>
-    </row>
-    <row r="176" spans="1:5" s="39" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="87"/>
-      <c r="B176" s="89"/>
-      <c r="C176" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="D176" s="90"/>
-      <c r="E176" s="91"/>
-    </row>
-    <row r="177" spans="1:5" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="87"/>
-      <c r="B177" s="89"/>
-      <c r="C177" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="D177" s="90"/>
-      <c r="E177" s="91"/>
-    </row>
-    <row r="178" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A178" s="87"/>
-      <c r="B178" s="89"/>
-      <c r="C178" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="D178" s="90"/>
-      <c r="E178" s="91"/>
-    </row>
-    <row r="179" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A179" s="87"/>
-      <c r="B179" s="89"/>
-      <c r="C179" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="D179" s="90"/>
-      <c r="E179" s="91"/>
-    </row>
-    <row r="180" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A180" s="87"/>
-      <c r="B180" s="89"/>
-      <c r="C180" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="D180" s="90"/>
-      <c r="E180" s="91"/>
-    </row>
-    <row r="181" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A181" s="87"/>
-      <c r="B181" s="89"/>
-      <c r="C181" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="D181" s="90"/>
-      <c r="E181" s="91"/>
-    </row>
-    <row r="182" spans="1:5" s="39" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="87"/>
-      <c r="B182" s="89"/>
-      <c r="C182" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="D182" s="90"/>
-      <c r="E182" s="91"/>
-    </row>
-    <row r="183" spans="1:5" s="39" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="87"/>
-      <c r="B183" s="89"/>
-      <c r="C183" s="36" t="s">
-        <v>315</v>
-      </c>
-      <c r="D183" s="90"/>
-      <c r="E183" s="91"/>
-    </row>
-    <row r="184" spans="1:5" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="87"/>
-      <c r="B184" s="89"/>
-      <c r="C184" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="D184" s="90"/>
-      <c r="E184" s="91"/>
-    </row>
-    <row r="185" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A185" s="87"/>
-      <c r="B185" s="89"/>
-      <c r="C185" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="D185" s="90"/>
-      <c r="E185" s="91"/>
-    </row>
-    <row r="186" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A186" s="87"/>
-      <c r="B186" s="89"/>
-      <c r="C186" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="D186" s="90"/>
-      <c r="E186" s="91"/>
-    </row>
-    <row r="187" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A187" s="87"/>
-      <c r="B187" s="89"/>
-      <c r="C187" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="D187" s="90"/>
-      <c r="E187" s="91"/>
-    </row>
-    <row r="188" spans="1:5" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A188" s="87"/>
-      <c r="B188" s="89"/>
-      <c r="C188" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="D188" s="90"/>
-      <c r="E188" s="91"/>
-    </row>
-    <row r="189" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="B189" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C189" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D189" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="E189" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A190" s="29"/>
-      <c r="B190" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="C190" s="74"/>
-      <c r="D190" s="56"/>
-      <c r="E190" s="38"/>
-    </row>
-    <row r="191" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="B191" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C191" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="D191" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E191" s="41" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="29"/>
-      <c r="B192" s="30"/>
-      <c r="C192" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D192" s="15"/>
-      <c r="E192" s="14"/>
-    </row>
-    <row r="193" spans="1:5" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A193" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="B193" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C193" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="D193" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E193" s="41" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A194" s="29"/>
-      <c r="B194" s="30"/>
-      <c r="C194" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="D194" s="15"/>
-      <c r="E194" s="14"/>
-    </row>
-    <row r="195" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A195" s="66" t="s">
-        <v>227</v>
-      </c>
-      <c r="B195" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C195" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="D195" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E195" s="41" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="29"/>
-      <c r="B196" s="30"/>
-      <c r="C196" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="D196" s="15"/>
-      <c r="E196" s="14"/>
-    </row>
-    <row r="197" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="B197" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C197" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D197" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="E197" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A198" s="72"/>
-      <c r="B198" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="C198" s="74"/>
-      <c r="D198" s="56"/>
-      <c r="E198" s="38"/>
-    </row>
-    <row r="199" spans="1:5" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A199" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="B199" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C199" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="D199" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="E199" s="41" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="66"/>
-      <c r="B200" s="30"/>
-      <c r="C200" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D200" s="15"/>
-      <c r="E200" s="42"/>
-    </row>
-    <row r="201" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="66" t="s">
-        <v>233</v>
-      </c>
-      <c r="B201" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="C201" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="D201" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="E201" s="41" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="66"/>
-      <c r="B202" s="30"/>
-      <c r="C202" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D202" s="48"/>
-      <c r="E202" s="42"/>
-    </row>
-    <row r="203" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A203" s="66" t="s">
-        <v>234</v>
-      </c>
-      <c r="B203" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C203" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="D203" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E203" s="41" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="66"/>
-      <c r="B204" s="30"/>
-      <c r="C204" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D204" s="15"/>
-      <c r="E204" s="42"/>
-    </row>
-    <row r="205" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A205" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="B205" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C205" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="D205" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E205" s="41" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="66"/>
-      <c r="B206" s="73"/>
-      <c r="C206" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="D206" s="15"/>
-      <c r="E206" s="77"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A116:A188"/>
-    <mergeCell ref="B116:B188"/>
-    <mergeCell ref="D116:D188"/>
-    <mergeCell ref="E116:E188"/>
+    <mergeCell ref="A115:A187"/>
+    <mergeCell ref="D115:D187"/>
+    <mergeCell ref="E115:E187"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.52" bottom="0.22" header="0.27559055118110237" footer="0.21"/>
-  <pageSetup paperSize="9" scale="56" firstPageNumber="163" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" firstPageNumber="163" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter differentFirst="1" alignWithMargins="0">
     <oddHeader>&amp;C&amp;P</oddHeader>
   </headerFooter>
